--- a/BalanceSheet/AVB_bal.xlsx
+++ b/BalanceSheet/AVB_bal.xlsx
@@ -3145,7 +3145,7 @@
         <v>7408000000.0</v>
       </c>
       <c r="G24" s="0" t="n">
-        <v>7309000000.0</v>
+        <v>7296676000.0</v>
       </c>
       <c r="H24" s="0" t="n">
         <v>7026525000.0</v>
@@ -3272,7 +3272,7 @@
         <v>8276000000.0</v>
       </c>
       <c r="G25" s="0" t="n">
-        <v>7437000000.0</v>
+        <v>7424290000.0</v>
       </c>
       <c r="H25" s="0" t="n">
         <v>7361279000.0</v>
